--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM055AssetLoss.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM055AssetLoss.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>正常逾期數0放款金額</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>備呆金額五分類2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -269,19 +265,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>放款餘額+政策性專案貸款調整數</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>政策性專案貸款調整數</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IFRS9增提金額(含應收利息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>備呆金額五分類1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -342,10 +330,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">LoanAmount1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>逾期放款</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -377,6 +361,45 @@
   <si>
     <t>NormalAmount</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LoanAmount1 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanAmountClass2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanAmountClass4</t>
+  </si>
+  <si>
+    <t>LoanAmountClass5</t>
+  </si>
+  <si>
+    <t>LoanAmountClass3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>備呆金額五分類1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常逾期數0放款金額</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款金額備呆金額五分類2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款金額備呆金額五分類3</t>
+  </si>
+  <si>
+    <t>放款金額備呆金額五分類4</t>
+  </si>
+  <si>
+    <t>放款金額備呆金額五分類5</t>
   </si>
 </sst>
 </file>
@@ -992,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1024,7 +1047,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1040,7 +1063,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1049,7 +1072,7 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -1149,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>25</v>
@@ -1162,7 +1185,7 @@
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="22" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1170,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>13</v>
@@ -1185,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1193,10 +1216,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>13</v>
@@ -1214,10 +1237,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>13</v>
@@ -1238,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>13</v>
@@ -1250,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -1258,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>57</v>
@@ -1405,10 +1428,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>33</v>
@@ -1429,7 +1452,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>33</v>
@@ -1440,19 +1463,17 @@
       <c r="F23" s="17">
         <v>2</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>33</v>
@@ -1463,19 +1484,17 @@
       <c r="F24" s="17">
         <v>2</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>72</v>
-      </c>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>33</v>
@@ -1486,19 +1505,17 @@
       <c r="F25" s="17">
         <v>2</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>65</v>
-      </c>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>33</v>
@@ -1509,19 +1526,17 @@
       <c r="F26" s="17">
         <v>2</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>65</v>
-      </c>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>33</v>
@@ -1532,19 +1547,17 @@
       <c r="F27" s="17">
         <v>2</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>33</v>
@@ -1556,18 +1569,18 @@
         <v>2</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="22" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>33</v>
@@ -1579,90 +1592,182 @@
         <v>2</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
-        <v>22</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="17">
+        <v>16</v>
+      </c>
+      <c r="F30" s="17">
+        <v>2</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
-        <v>23</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="19">
-        <v>6</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="17">
+        <v>16</v>
+      </c>
+      <c r="F31" s="17">
+        <v>2</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
+        <v>20</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="17">
+        <v>16</v>
+      </c>
+      <c r="F32" s="17">
+        <v>2</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>21</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="17">
+        <v>16</v>
+      </c>
+      <c r="F33" s="17">
+        <v>2</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>22</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>23</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="D35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="19">
+        <v>6</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>24</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
+      <c r="D36" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D37" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E37" s="19">
         <v>6</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="16"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
